--- a/xlsx/FR/CC_attitude_FR.xlsx
+++ b/xlsx/FR/CC_attitude_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Feasible to stop GHG emissions&lt;br&gt;while maintaining satisfactory&lt;br&gt;standards of living in FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change negatively affects personal life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not at all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great deal</t>
   </si>
 </sst>
 </file>
@@ -377,64 +377,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.119666486126916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0826813463478077</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.318536447498135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.302274163218841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.363570305624966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.35692239322879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.145745264558663</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.168942519593044</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B6" t="n">
+        <v>0.0524814961913194</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0891795776115168</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/CC_attitude_FR.xlsx
+++ b/xlsx/FR/CC_attitude_FR.xlsx
@@ -383,10 +383,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.119666486126916</v>
+        <v>0.10892974280735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0826813463478077</v>
+        <v>0.0856568381898526</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.318536447498135</v>
+        <v>0.312091308898474</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302274163218841</v>
+        <v>0.295024019082975</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.363570305624966</v>
+        <v>0.368695115032575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.35692239322879</v>
+        <v>0.336523356286043</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.145745264558663</v>
+        <v>0.161900740938096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.168942519593044</v>
+        <v>0.182082800870997</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0524814961913194</v>
+        <v>0.0483830923235043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0891795776115168</v>
+        <v>0.100712985570132</v>
       </c>
     </row>
   </sheetData>
